--- a/PFOA inhalation Rat/Data/PFOA_male_urine_oral_low_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_urine_oral_low_Cui_2010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863FDA65-89CE-4C2A-A267-5AD253D1C260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B465283-BD2B-4F3D-A179-DA7F3B3A079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>Dose_mg_per_kg</t>
   </si>
@@ -56,7 +56,10 @@
     <t>Time_hours</t>
   </si>
   <si>
-    <t>Concentration_microg_per_g_organ</t>
+    <t>urine_volume_mL</t>
+  </si>
+  <si>
+    <t>Mass_ug</t>
   </si>
 </sst>
 </file>
@@ -425,22 +428,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -448,19 +452,21 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -468,18 +474,20 @@
         <v>24</v>
       </c>
       <c r="C2" s="3">
-        <v>15.066626672025858</v>
+        <v>210.93277340836201</v>
       </c>
       <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -487,18 +495,20 @@
         <v>72</v>
       </c>
       <c r="C3" s="3">
-        <v>27.799261731701129</v>
+        <v>394.74951659015602</v>
       </c>
       <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>14.2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -506,18 +516,20 @@
         <v>120</v>
       </c>
       <c r="C4" s="3">
-        <v>52.404329665084788</v>
+        <v>754.62234717722095</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>14.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -525,18 +537,20 @@
         <v>168</v>
       </c>
       <c r="C5" s="3">
-        <v>47.465411352978975</v>
+        <v>692.99500575349305</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>14.6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -544,18 +558,20 @@
         <v>240</v>
       </c>
       <c r="C6" s="3">
-        <v>49.209975839399128</v>
+        <v>738.14963759098691</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -563,18 +579,20 @@
         <v>336</v>
       </c>
       <c r="C7" s="3">
-        <v>50.678556941121577</v>
+        <v>805.78905536383309</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>15.9</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -582,18 +600,20 @@
         <v>432</v>
       </c>
       <c r="C8" s="3">
-        <v>64.355573960898184</v>
+        <v>1061.8669703548201</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
@@ -601,18 +621,20 @@
         <v>504</v>
       </c>
       <c r="C9" s="3">
-        <v>57.586810311604417</v>
+        <v>990.49313735959595</v>
       </c>
       <c r="D9" s="3">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>17.2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -620,18 +642,20 @@
         <v>576</v>
       </c>
       <c r="C10" s="3">
-        <v>47.011270755889704</v>
+        <v>827.39836530365892</v>
       </c>
       <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -639,18 +663,20 @@
         <v>672</v>
       </c>
       <c r="C11" s="3">
-        <v>66.983764389481209</v>
+        <v>1212.40613544961</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -658,8 +684,9 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -667,8 +694,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -676,8 +704,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -685,8 +714,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -694,6 +724,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>

--- a/PFOA inhalation Rat/Data/PFOA_male_urine_oral_low_Cui_2010.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_male_urine_oral_low_Cui_2010.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B465283-BD2B-4F3D-A179-DA7F3B3A079B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA62C846-1F8B-408F-BF87-6B4499591ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
-  <si>
-    <t>Dose_mg_per_kg</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>oral</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="4">
   <si>
     <t>Urine</t>
   </si>
@@ -56,17 +47,14 @@
     <t>Time_hours</t>
   </si>
   <si>
-    <t>urine_volume_mL</t>
-  </si>
-  <si>
-    <t>Mass_ug</t>
+    <t>Mass_mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +68,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,10 +95,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -114,9 +110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AA276B37-E432-4889-B3A9-7B063CC502E7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -431,7 +429,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C2" sqref="C2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,240 +444,180 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>24</v>
       </c>
-      <c r="C2" s="3">
-        <v>210.93277340836201</v>
-      </c>
-      <c r="D2" s="3">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="4">
+        <v>0.210932773408362</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>72</v>
-      </c>
-      <c r="C3" s="3">
-        <v>394.74951659015602</v>
-      </c>
-      <c r="D3" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.51377391840762099</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>120</v>
-      </c>
-      <c r="C4" s="3">
-        <v>754.62234717722095</v>
-      </c>
-      <c r="D4" s="3">
-        <v>14.4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.90852343499777699</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3">
-        <v>168</v>
-      </c>
-      <c r="C5" s="3">
-        <v>692.99500575349305</v>
-      </c>
-      <c r="D5" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.4832093668814701</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3">
-        <v>240</v>
-      </c>
-      <c r="C6" s="3">
-        <v>738.14963759098691</v>
-      </c>
-      <c r="D6" s="3">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.2378317140586899</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B7" s="3">
-        <v>336</v>
-      </c>
-      <c r="C7" s="3">
-        <v>805.78905536383309</v>
-      </c>
-      <c r="D7" s="3">
-        <v>15.9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.9616403905240398</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3">
-        <v>432</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1061.8669703548201</v>
-      </c>
-      <c r="D8" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.65463539627754</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3">
-        <v>504</v>
-      </c>
-      <c r="C9" s="3">
-        <v>990.49313735959595</v>
-      </c>
-      <c r="D9" s="3">
-        <v>17.2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.3626819459768598</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3">
-        <v>576</v>
-      </c>
-      <c r="C10" s="3">
-        <v>827.39836530365892</v>
-      </c>
-      <c r="D10" s="3">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5.0857800396220201</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>672</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1212.40613544961</v>
-      </c>
-      <c r="D11" s="3">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>2</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5.823929677213</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>264</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.5789891692472002</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -687,9 +625,15 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>288</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.35095851572461</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -697,9 +641,15 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
+        <v>312</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8.1398377166452303</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -707,9 +657,15 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>336</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.9456267720090707</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -717,61 +673,171 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>360</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9.8154353061206496</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>384</v>
+      </c>
+      <c r="C17" s="4">
+        <v>10.749263318980001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>408</v>
+      </c>
+      <c r="C18" s="4">
+        <v>11.747110810586999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>432</v>
+      </c>
+      <c r="C19" s="4">
+        <v>12.8089777809419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>456</v>
+      </c>
+      <c r="C20" s="4">
+        <v>13.8470534736316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>480</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14.861337888656299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>504</v>
+      </c>
+      <c r="C22" s="4">
+        <v>15.851831026015899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>528</v>
+      </c>
+      <c r="C23" s="4">
+        <v>16.787959239356798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>552</v>
+      </c>
+      <c r="C24" s="4">
+        <v>17.669722528679099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>576</v>
+      </c>
+      <c r="C25" s="4">
+        <v>18.4971208939828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>600</v>
+      </c>
+      <c r="C26" s="4">
+        <v>19.420771201822902</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>624</v>
+      </c>
+      <c r="C27" s="4">
+        <v>20.440673452199601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>648</v>
+      </c>
+      <c r="C28" s="4">
+        <v>21.556827645112701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>672</v>
+      </c>
+      <c r="C29" s="4">
+        <v>22.769233780562299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
